--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Lamb1-Itgb1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Lamb1-Itgb1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.15943604403334</v>
+        <v>25.38222733333333</v>
       </c>
       <c r="H2">
-        <v>3.15943604403334</v>
+        <v>76.146682</v>
       </c>
       <c r="I2">
-        <v>0.0265809443292137</v>
+        <v>0.1760862452187379</v>
       </c>
       <c r="J2">
-        <v>0.0265809443292137</v>
+        <v>0.1760862452187379</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.516711488548</v>
+        <v>112.513392</v>
       </c>
       <c r="N2">
-        <v>105.516711488548</v>
+        <v>337.540176</v>
       </c>
       <c r="O2">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="P2">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="Q2">
-        <v>333.3733015247853</v>
+        <v>2855.840493788448</v>
       </c>
       <c r="R2">
-        <v>333.3733015247853</v>
+        <v>25702.56444409603</v>
       </c>
       <c r="S2">
-        <v>0.008358451204720769</v>
+        <v>0.05767375641010355</v>
       </c>
       <c r="T2">
-        <v>0.008358451204720769</v>
+        <v>0.05767375641010355</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.15943604403334</v>
+        <v>25.38222733333333</v>
       </c>
       <c r="H3">
-        <v>3.15943604403334</v>
+        <v>76.146682</v>
       </c>
       <c r="I3">
-        <v>0.0265809443292137</v>
+        <v>0.1760862452187379</v>
       </c>
       <c r="J3">
-        <v>0.0265809443292137</v>
+        <v>0.1760862452187379</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>106.175494972697</v>
+        <v>106.314466</v>
       </c>
       <c r="N3">
-        <v>106.175494972697</v>
+        <v>318.943398</v>
       </c>
       <c r="O3">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441663</v>
       </c>
       <c r="P3">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441664</v>
       </c>
       <c r="Q3">
-        <v>335.4546858098196</v>
+        <v>2698.497944833937</v>
       </c>
       <c r="R3">
-        <v>335.4546858098196</v>
+        <v>24286.48150350543</v>
       </c>
       <c r="S3">
-        <v>0.008410636394432002</v>
+        <v>0.05449622045839873</v>
       </c>
       <c r="T3">
-        <v>0.008410636394432002</v>
+        <v>0.05449622045839874</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.15943604403334</v>
+        <v>25.38222733333333</v>
       </c>
       <c r="H4">
-        <v>3.15943604403334</v>
+        <v>76.146682</v>
       </c>
       <c r="I4">
-        <v>0.0265809443292137</v>
+        <v>0.1760862452187379</v>
       </c>
       <c r="J4">
-        <v>0.0265809443292137</v>
+        <v>0.1760862452187379</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>123.864437369458</v>
+        <v>124.6916553333333</v>
       </c>
       <c r="N4">
-        <v>123.864437369458</v>
+        <v>374.074966</v>
       </c>
       <c r="O4">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="P4">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="Q4">
-        <v>391.3417679989758</v>
+        <v>3164.951942240313</v>
       </c>
       <c r="R4">
-        <v>391.3417679989758</v>
+        <v>28484.56748016281</v>
       </c>
       <c r="S4">
-        <v>0.009811856730060924</v>
+        <v>0.06391626835023563</v>
       </c>
       <c r="T4">
-        <v>0.009811856730060924</v>
+        <v>0.06391626835023566</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>94.7658205856882</v>
+        <v>94.773687</v>
       </c>
       <c r="H5">
-        <v>94.7658205856882</v>
+        <v>284.321061</v>
       </c>
       <c r="I5">
-        <v>0.7972831119837189</v>
+        <v>0.6574814128880592</v>
       </c>
       <c r="J5">
-        <v>0.7972831119837189</v>
+        <v>0.6574814128880593</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>105.516711488548</v>
+        <v>112.513392</v>
       </c>
       <c r="N5">
-        <v>105.516711488548</v>
+        <v>337.540176</v>
       </c>
       <c r="O5">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="P5">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="Q5">
-        <v>9999.377749715564</v>
+        <v>10663.3089967163</v>
       </c>
       <c r="R5">
-        <v>9999.377749715564</v>
+        <v>95969.78097044672</v>
       </c>
       <c r="S5">
-        <v>0.2507078719750274</v>
+        <v>0.2153457404010879</v>
       </c>
       <c r="T5">
-        <v>0.2507078719750274</v>
+        <v>0.2153457404010879</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>94.7658205856882</v>
+        <v>94.773687</v>
       </c>
       <c r="H6">
-        <v>94.7658205856882</v>
+        <v>284.321061</v>
       </c>
       <c r="I6">
-        <v>0.7972831119837189</v>
+        <v>0.6574814128880592</v>
       </c>
       <c r="J6">
-        <v>0.7972831119837189</v>
+        <v>0.6574814128880593</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>106.175494972697</v>
+        <v>106.314466</v>
       </c>
       <c r="N6">
-        <v>106.175494972697</v>
+        <v>318.943398</v>
       </c>
       <c r="O6">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441663</v>
       </c>
       <c r="P6">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441664</v>
       </c>
       <c r="Q6">
-        <v>10061.80790717924</v>
+        <v>10075.81392425614</v>
       </c>
       <c r="R6">
-        <v>10061.80790717924</v>
+        <v>90682.32531830527</v>
       </c>
       <c r="S6">
-        <v>0.252273142566513</v>
+        <v>0.2034812655556263</v>
       </c>
       <c r="T6">
-        <v>0.252273142566513</v>
+        <v>0.2034812655556264</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>94.7658205856882</v>
+        <v>94.773687</v>
       </c>
       <c r="H7">
-        <v>94.7658205856882</v>
+        <v>284.321061</v>
       </c>
       <c r="I7">
-        <v>0.7972831119837189</v>
+        <v>0.6574814128880592</v>
       </c>
       <c r="J7">
-        <v>0.7972831119837189</v>
+        <v>0.6574814128880593</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>123.864437369458</v>
+        <v>124.6916553333333</v>
       </c>
       <c r="N7">
-        <v>123.864437369458</v>
+        <v>374.074966</v>
       </c>
       <c r="O7">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="P7">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="Q7">
-        <v>11738.11504870127</v>
+        <v>11817.48791407321</v>
       </c>
       <c r="R7">
-        <v>11738.11504870127</v>
+        <v>106357.3912266589</v>
       </c>
       <c r="S7">
-        <v>0.2943020974421784</v>
+        <v>0.2386544069313449</v>
       </c>
       <c r="T7">
-        <v>0.2943020974421784</v>
+        <v>0.238654406931345</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>20.9356839336644</v>
+        <v>23.99065033333333</v>
       </c>
       <c r="H8">
-        <v>20.9356839336644</v>
+        <v>71.971951</v>
       </c>
       <c r="I8">
-        <v>0.1761359436870673</v>
+        <v>0.1664323418932028</v>
       </c>
       <c r="J8">
-        <v>0.1761359436870673</v>
+        <v>0.1664323418932028</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>105.516711488548</v>
+        <v>112.513392</v>
       </c>
       <c r="N8">
-        <v>105.516711488548</v>
+        <v>337.540176</v>
       </c>
       <c r="O8">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="P8">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="Q8">
-        <v>2209.064521443896</v>
+        <v>2699.269445289264</v>
       </c>
       <c r="R8">
-        <v>2209.064521443896</v>
+        <v>24293.42500760337</v>
       </c>
       <c r="S8">
-        <v>0.05538643294503855</v>
+        <v>0.05451180092566488</v>
       </c>
       <c r="T8">
-        <v>0.05538643294503855</v>
+        <v>0.05451180092566488</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>20.9356839336644</v>
+        <v>23.99065033333333</v>
       </c>
       <c r="H9">
-        <v>20.9356839336644</v>
+        <v>71.971951</v>
       </c>
       <c r="I9">
-        <v>0.1761359436870673</v>
+        <v>0.1664323418932028</v>
       </c>
       <c r="J9">
-        <v>0.1761359436870673</v>
+        <v>0.1664323418932028</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>106.175494972697</v>
+        <v>106.314466</v>
       </c>
       <c r="N9">
-        <v>106.175494972697</v>
+        <v>318.943398</v>
       </c>
       <c r="O9">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441663</v>
       </c>
       <c r="P9">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441664</v>
       </c>
       <c r="Q9">
-        <v>2222.856604248758</v>
+        <v>2550.553179181055</v>
       </c>
       <c r="R9">
-        <v>2222.856604248758</v>
+        <v>22954.9786126295</v>
       </c>
       <c r="S9">
-        <v>0.05573223283545758</v>
+        <v>0.05150847293014121</v>
       </c>
       <c r="T9">
-        <v>0.05573223283545758</v>
+        <v>0.05150847293014123</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>20.9356839336644</v>
+        <v>23.99065033333333</v>
       </c>
       <c r="H10">
-        <v>20.9356839336644</v>
+        <v>71.971951</v>
       </c>
       <c r="I10">
-        <v>0.1761359436870673</v>
+        <v>0.1664323418932028</v>
       </c>
       <c r="J10">
-        <v>0.1761359436870673</v>
+        <v>0.1664323418932028</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>123.864437369458</v>
+        <v>124.6916553333333</v>
       </c>
       <c r="N10">
-        <v>123.864437369458</v>
+        <v>374.074966</v>
       </c>
       <c r="O10">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="P10">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="Q10">
-        <v>2593.186711388142</v>
+        <v>2991.433902586519</v>
       </c>
       <c r="R10">
-        <v>2593.186711388142</v>
+        <v>26922.90512327867</v>
       </c>
       <c r="S10">
-        <v>0.06501727790657114</v>
+        <v>0.0604120680373967</v>
       </c>
       <c r="T10">
-        <v>0.06501727790657114</v>
+        <v>0.06041206803739672</v>
       </c>
     </row>
   </sheetData>
